--- a/src/quotes/cbr/testdata/deposits.xlsx
+++ b/src/quotes/cbr/testdata/deposits.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RukhlinaEY\AppData\Local\Temp\Rar$DIa11016.39858.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RukhlinaEY\AppData\Local\Temp\Rar$DIa36688.49599\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="ставки_руб" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="172">
   <si>
     <t>Средневзвешенные процентные ставки по привлеченным кредитными организациями вкладам (депозитам) физических лиц и нефинансовых организаций в рублях*</t>
   </si>
@@ -485,6 +485,24 @@
     <t>Апрель 2025</t>
   </si>
   <si>
+    <t>Май 2025</t>
+  </si>
+  <si>
+    <t>Июнь 2025</t>
+  </si>
+  <si>
+    <t>Июль 2025</t>
+  </si>
+  <si>
+    <t>Август 2025</t>
+  </si>
+  <si>
+    <t>Сентябрь 2025</t>
+  </si>
+  <si>
+    <t>Октябрь 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">* Средневзвешенные процентные ставки в годовом исчислении, рассчитанные исходя из годовых процентных ставок, установленных в депозитных договорах, и объемов привлеченных в отчетном месяце депозитов.  
 Динамика показателя определяется как уровнем процентных ставок, так и объемом привлеченных средств.
 **В том числе вклады, по которым условия договора допускают совершение расходных операций в пределах суммы, превышающей неснижаемый остаток, при условии, что величина неснижаемого остатка не превышает 1 тысячи рублей. </t>
@@ -539,7 +557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00;0.00"/>
   </numFmts>
@@ -591,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -629,11 +647,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -653,6 +680,15 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,14 +698,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,13 +993,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:U142"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -976,115 +1015,108 @@
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="19" width="18.140625" customWidth="1"/>
     <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1237,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +1299,7 @@
         <v>7.91</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1361,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1423,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1485,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1547,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1609,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1671,7 @@
         <v>9.31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1733,7 @@
         <v>9.44</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +1795,7 @@
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -8769,7 +8801,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -8831,7 +8863,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>141</v>
       </c>
@@ -8893,7 +8925,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>142</v>
       </c>
@@ -8955,7 +8987,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
@@ -9017,7 +9049,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
@@ -9079,7 +9111,7 @@
         <v>19.760000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
@@ -9141,7 +9173,7 @@
         <v>22.03</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>146</v>
       </c>
@@ -9203,7 +9235,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -9265,7 +9297,7 @@
         <v>21.96</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>148</v>
       </c>
@@ -9327,7 +9359,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>149</v>
       </c>
@@ -9389,7 +9421,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>150</v>
       </c>
@@ -9451,7 +9483,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -9513,7 +9545,7 @@
         <v>19.510000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
@@ -9575,40 +9607,433 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" ht="66.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
+      <c r="B142" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="C142" s="5">
+        <v>12.74</v>
+      </c>
+      <c r="D142" s="5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E142" s="5">
+        <v>18.61</v>
+      </c>
+      <c r="F142" s="5">
+        <v>19.34</v>
+      </c>
+      <c r="G142" s="5">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="H142" s="6">
+        <v>19.25</v>
+      </c>
+      <c r="I142" s="5">
+        <v>19.39</v>
+      </c>
+      <c r="J142" s="5">
+        <v>18.32</v>
+      </c>
+      <c r="K142" s="5">
+        <v>8.19</v>
+      </c>
+      <c r="L142" s="6">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="M142" s="5">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="N142" s="5">
+        <v>19.88</v>
+      </c>
+      <c r="O142" s="5">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="P142" s="5">
+        <v>20.72</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>19.28</v>
+      </c>
+      <c r="R142" s="5">
+        <v>19.66</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T142" s="6">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="5">
+        <v>11.85</v>
+      </c>
+      <c r="C143" s="5">
+        <v>14.17</v>
+      </c>
+      <c r="D143" s="5">
+        <v>15.79</v>
+      </c>
+      <c r="E143" s="5">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="F143" s="5">
+        <v>18.68</v>
+      </c>
+      <c r="G143" s="5">
+        <v>18.87</v>
+      </c>
+      <c r="H143" s="6">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="I143" s="5">
+        <v>18.71</v>
+      </c>
+      <c r="J143" s="5">
+        <v>17.89</v>
+      </c>
+      <c r="K143" s="5">
+        <v>9.51</v>
+      </c>
+      <c r="L143" s="6">
+        <v>17.55</v>
+      </c>
+      <c r="M143" s="5">
+        <v>18.47</v>
+      </c>
+      <c r="N143" s="5">
+        <v>19.09</v>
+      </c>
+      <c r="O143" s="5">
+        <v>19.07</v>
+      </c>
+      <c r="P143" s="5">
+        <v>19.34</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="R143" s="5">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T143" s="6">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="5">
+        <v>11.67</v>
+      </c>
+      <c r="C144" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="D144" s="5">
+        <v>16.02</v>
+      </c>
+      <c r="E144" s="5">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="F144" s="5">
+        <v>17.29</v>
+      </c>
+      <c r="G144" s="5">
+        <v>17.53</v>
+      </c>
+      <c r="H144" s="6">
+        <v>17.29</v>
+      </c>
+      <c r="I144" s="5">
+        <v>17.41</v>
+      </c>
+      <c r="J144" s="5">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="K144" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L144" s="6">
+        <v>16.38</v>
+      </c>
+      <c r="M144" s="5">
+        <v>17.73</v>
+      </c>
+      <c r="N144" s="5">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="O144" s="5">
+        <v>17.59</v>
+      </c>
+      <c r="P144" s="5">
+        <v>17.11</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>17.72</v>
+      </c>
+      <c r="R144" s="5">
+        <v>16.79</v>
+      </c>
+      <c r="S144" s="5">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="T144" s="6">
+        <v>16.77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>10.81</v>
+      </c>
+      <c r="C145" s="5">
+        <v>10.97</v>
+      </c>
+      <c r="D145" s="5">
+        <v>14.96</v>
+      </c>
+      <c r="E145" s="5">
+        <v>15.76</v>
+      </c>
+      <c r="F145" s="5">
+        <v>15.65</v>
+      </c>
+      <c r="G145" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="H145" s="6">
+        <v>15.57</v>
+      </c>
+      <c r="I145" s="5">
+        <v>15.71</v>
+      </c>
+      <c r="J145" s="5">
+        <v>14.18</v>
+      </c>
+      <c r="K145" s="5">
+        <v>7.79</v>
+      </c>
+      <c r="L145" s="6">
+        <v>13.55</v>
+      </c>
+      <c r="M145" s="5">
+        <v>16.48</v>
+      </c>
+      <c r="N145" s="5">
+        <v>16.59</v>
+      </c>
+      <c r="O145" s="5">
+        <v>16</v>
+      </c>
+      <c r="P145" s="5">
+        <v>15.72</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>16.48</v>
+      </c>
+      <c r="R145" s="5">
+        <v>15.65</v>
+      </c>
+      <c r="S145" s="5">
+        <v>12.68</v>
+      </c>
+      <c r="T145" s="6">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="5">
+        <v>9.18</v>
+      </c>
+      <c r="C146" s="5">
+        <v>14.94</v>
+      </c>
+      <c r="D146" s="5">
+        <v>16.09</v>
+      </c>
+      <c r="E146" s="5">
+        <v>15.67</v>
+      </c>
+      <c r="F146" s="5">
+        <v>15.35</v>
+      </c>
+      <c r="G146" s="5">
+        <v>15.04</v>
+      </c>
+      <c r="H146" s="6">
+        <v>15.32</v>
+      </c>
+      <c r="I146" s="5">
+        <v>15.45</v>
+      </c>
+      <c r="J146" s="5">
+        <v>13.29</v>
+      </c>
+      <c r="K146" s="5">
+        <v>8.99</v>
+      </c>
+      <c r="L146" s="6">
+        <v>12.95</v>
+      </c>
+      <c r="M146" s="5">
+        <v>15.79</v>
+      </c>
+      <c r="N146" s="5">
+        <v>15.76</v>
+      </c>
+      <c r="O146" s="5">
+        <v>15.77</v>
+      </c>
+      <c r="P146" s="5">
+        <v>15.15</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>15.78</v>
+      </c>
+      <c r="R146" s="5">
+        <v>14.96</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T146" s="6">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="C147" s="5">
+        <v>6.86</v>
+      </c>
+      <c r="D147" s="5">
+        <v>14.44</v>
+      </c>
+      <c r="E147" s="5">
+        <v>15.84</v>
+      </c>
+      <c r="F147" s="5">
+        <v>15.41</v>
+      </c>
+      <c r="G147" s="5">
+        <v>15.03</v>
+      </c>
+      <c r="H147" s="6">
+        <v>15.27</v>
+      </c>
+      <c r="I147" s="5">
+        <v>15.46</v>
+      </c>
+      <c r="J147" s="5">
+        <v>12.63</v>
+      </c>
+      <c r="K147" s="5">
+        <v>7.49</v>
+      </c>
+      <c r="L147" s="6">
+        <v>12.12</v>
+      </c>
+      <c r="M147" s="5">
+        <v>15.25</v>
+      </c>
+      <c r="N147" s="5">
+        <v>15.63</v>
+      </c>
+      <c r="O147" s="5">
+        <v>15.88</v>
+      </c>
+      <c r="P147" s="5">
+        <v>16.16</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>15.28</v>
+      </c>
+      <c r="R147" s="5">
+        <v>15.37</v>
+      </c>
+      <c r="S147" s="5">
+        <v>17.22</v>
+      </c>
+      <c r="T147" s="6">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="9" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="1:20" s="1" customFormat="1" ht="66.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A142:U142"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A149:T149"/>
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="M4:T4"/>
+    <mergeCell ref="A3:T3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9621,13 +10046,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:U142"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9642,110 +10067,109 @@
     <col min="14" max="16" width="18.140625" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="0.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -17430,7 +17854,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -17492,7 +17916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>141</v>
       </c>
@@ -17554,7 +17978,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>142</v>
       </c>
@@ -17616,7 +18040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
@@ -17678,7 +18102,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
@@ -17740,7 +18164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
@@ -17802,7 +18226,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>146</v>
       </c>
@@ -17864,7 +18288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -17926,7 +18350,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>148</v>
       </c>
@@ -17988,7 +18412,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>149</v>
       </c>
@@ -18050,7 +18474,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>150</v>
       </c>
@@ -18112,7 +18536,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -18174,7 +18598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
@@ -18236,35 +18660,428 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H142" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I142" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="J142" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L142" s="6">
+        <v>1.47</v>
+      </c>
+      <c r="M142" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N142" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P142" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="5">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1.72</v>
+      </c>
+      <c r="G143" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="H143" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="I143" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="J143" s="5">
+        <v>1.42</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L143" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="M143" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="O143" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="P143" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T143" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
+      <c r="B144" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="G144" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="H144" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="I144" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="J144" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L144" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="M144" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T144" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="G145" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="H145" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="I145" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="J145" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L145" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="M145" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="N145" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="O145" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="R145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T145" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="5">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="H146" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="I146" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="J146" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L146" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="M146" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="N146" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="O146" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="H147" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="I147" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="J147" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L147" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="M147" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="N147" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="O147" s="5">
+        <v>1.78</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="R147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="9" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="1:20" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A142:U142"/>
+    <mergeCell ref="A149:T149"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:A5"/>
@@ -18272,7 +19089,7 @@
     <mergeCell ref="M4:T4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -18282,13 +19099,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:U142"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18303,110 +19120,109 @@
     <col min="14" max="16" width="18.140625" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
     <col min="18" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="0.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -26091,7 +26907,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -26153,7 +26969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>141</v>
       </c>
@@ -26215,7 +27031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>142</v>
       </c>
@@ -26277,7 +27093,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
@@ -26339,7 +27155,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
@@ -26401,7 +27217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
@@ -26463,7 +27279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>146</v>
       </c>
@@ -26525,7 +27341,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -26587,7 +27403,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>148</v>
       </c>
@@ -26649,7 +27465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>149</v>
       </c>
@@ -26711,7 +27527,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>150</v>
       </c>
@@ -26773,7 +27589,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -26835,7 +27651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
@@ -26897,35 +27713,428 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F142" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="G142" s="5">
+        <v>1.71</v>
+      </c>
+      <c r="H142" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="I142" s="5">
+        <v>1.62</v>
+      </c>
+      <c r="J142" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L142" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="M142" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="N142" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F143" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G143" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="H143" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="I143" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="J143" s="5">
+        <v>1.63</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L143" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="M143" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="N143" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T143" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="G144" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="H144" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I144" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="J144" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L144" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="M144" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N144" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T144" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="G145" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="H145" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="I145" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="J145" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L145" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N145" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="O145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="R145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T145" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
+      <c r="B146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="H146" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I146" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J146" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L146" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N146" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="O146" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="P146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F147" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="H147" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I147" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J147" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L147" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N147" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O147" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="9" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="1:20" s="1" customFormat="1" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A142:U142"/>
+    <mergeCell ref="A149:T149"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:A5"/>
@@ -26933,7 +28142,7 @@
     <mergeCell ref="M4:T4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -26943,13 +28152,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:U142"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26968,107 +28177,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -34751,7 +35960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -34813,7 +36022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>141</v>
       </c>
@@ -34875,7 +36084,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>142</v>
       </c>
@@ -34937,7 +36146,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
@@ -34999,7 +36208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
@@ -35061,7 +36270,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
@@ -35123,7 +36332,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>146</v>
       </c>
@@ -35185,7 +36394,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -35247,7 +36456,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>148</v>
       </c>
@@ -35309,7 +36518,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>149</v>
       </c>
@@ -35371,7 +36580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>150</v>
       </c>
@@ -35433,7 +36642,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -35495,7 +36704,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
@@ -35557,35 +36766,428 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
+    <row r="142" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1.91</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="D142" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="E142" s="5">
+        <v>12.47</v>
+      </c>
+      <c r="F142" s="5">
+        <v>51.06</v>
+      </c>
+      <c r="G142" s="5">
+        <v>29.52</v>
+      </c>
+      <c r="H142" s="6">
+        <v>95.03</v>
+      </c>
+      <c r="I142" s="5">
+        <v>93.12</v>
+      </c>
+      <c r="J142" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K142" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="L142" s="6">
+        <v>4.97</v>
+      </c>
+      <c r="M142" s="5">
+        <v>94.39</v>
+      </c>
+      <c r="N142" s="5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="O142" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>99.98</v>
+      </c>
+      <c r="R142" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T142" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="C143" s="5">
+        <v>4.45</v>
+      </c>
+      <c r="D143" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="E143" s="5">
+        <v>11.69</v>
+      </c>
+      <c r="F143" s="5">
+        <v>55.72</v>
+      </c>
+      <c r="G143" s="5">
+        <v>22.85</v>
+      </c>
+      <c r="H143" s="6">
+        <v>94.7</v>
+      </c>
+      <c r="I143" s="5">
+        <v>92.88</v>
+      </c>
+      <c r="J143" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="K143" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="L143" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="M143" s="5">
+        <v>94.42</v>
+      </c>
+      <c r="N143" s="5">
+        <v>4.29</v>
+      </c>
+      <c r="O143" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>99.97</v>
+      </c>
+      <c r="R143" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T143" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="C144" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="D144" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="E144" s="5">
+        <v>16.87</v>
+      </c>
+      <c r="F144" s="5">
+        <v>55.19</v>
+      </c>
+      <c r="G144" s="5">
+        <v>20.74</v>
+      </c>
+      <c r="H144" s="6">
+        <v>94.92</v>
+      </c>
+      <c r="I144" s="5">
+        <v>92.86</v>
+      </c>
+      <c r="J144" s="5">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="K144" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L144" s="6">
+        <v>5.08</v>
+      </c>
+      <c r="M144" s="5">
+        <v>95.26</v>
+      </c>
+      <c r="N144" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="O144" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="P144" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="R144" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S144" s="5">
+        <v>0</v>
+      </c>
+      <c r="T144" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="C145" s="5">
+        <v>2.73</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="E145" s="5">
+        <v>23.75</v>
+      </c>
+      <c r="F145" s="5">
+        <v>51.86</v>
+      </c>
+      <c r="G145" s="5">
+        <v>17.04</v>
+      </c>
+      <c r="H145" s="6">
+        <v>95.37</v>
+      </c>
+      <c r="I145" s="5">
+        <v>92.75</v>
+      </c>
+      <c r="J145" s="5">
+        <v>4.17</v>
+      </c>
+      <c r="K145" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="L145" s="6">
+        <v>4.63</v>
+      </c>
+      <c r="M145" s="5">
+        <v>95.5</v>
+      </c>
+      <c r="N145" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="O145" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="R145" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S145" s="5">
+        <v>0</v>
+      </c>
+      <c r="T145" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="5">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C146" s="5">
+        <v>12.23</v>
+      </c>
+      <c r="D146" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E146" s="5">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="F146" s="5">
+        <v>49.31</v>
+      </c>
+      <c r="G146" s="5">
+        <v>15.16</v>
+      </c>
+      <c r="H146" s="6">
+        <v>96.28</v>
+      </c>
+      <c r="I146" s="5">
+        <v>94.26</v>
+      </c>
+      <c r="J146" s="5">
+        <v>3.43</v>
+      </c>
+      <c r="K146" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L146" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="M146" s="5">
+        <v>95.46</v>
+      </c>
+      <c r="N146" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="O146" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="P146" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="R146" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T146" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C147" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="D147" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E147" s="5">
+        <v>21.98</v>
+      </c>
+      <c r="F147" s="5">
+        <v>60.56</v>
+      </c>
+      <c r="G147" s="5">
+        <v>12.52</v>
+      </c>
+      <c r="H147" s="6">
+        <v>97.28</v>
+      </c>
+      <c r="I147" s="5">
+        <v>95.22</v>
+      </c>
+      <c r="J147" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K147" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="L147" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="M147" s="5">
+        <v>94.91</v>
+      </c>
+      <c r="N147" s="5">
+        <v>4.04</v>
+      </c>
+      <c r="O147" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="P147" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="R147" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S147" s="5">
+        <v>0</v>
+      </c>
+      <c r="T147" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="9" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="1:20" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A142:U142"/>
+    <mergeCell ref="A149:T149"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:A5"/>
@@ -35603,13 +37205,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:U142"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35628,105 +37230,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="A1" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="A3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -43411,7 +45013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -43473,7 +45075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>141</v>
       </c>
@@ -43535,7 +45137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>142</v>
       </c>
@@ -43597,7 +45199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
@@ -43659,7 +45261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
@@ -43721,7 +45323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
@@ -43783,7 +45385,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>146</v>
       </c>
@@ -43845,7 +45447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -43907,7 +45509,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>148</v>
       </c>
@@ -43969,7 +45571,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>149</v>
       </c>
@@ -44031,7 +45633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>150</v>
       </c>
@@ -44093,7 +45695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -44155,7 +45757,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
@@ -44217,35 +45819,428 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
+    <row r="142" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="5">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F142" s="5">
+        <v>20.69</v>
+      </c>
+      <c r="G142" s="5">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="H142" s="6">
+        <v>66</v>
+      </c>
+      <c r="I142" s="5">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="J142" s="5">
+        <v>34</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L142" s="6">
+        <v>34</v>
+      </c>
+      <c r="M142" s="5">
+        <v>79.11</v>
+      </c>
+      <c r="N142" s="5">
+        <v>20.16</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P142" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>100</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="F143" s="5">
+        <v>7.03</v>
+      </c>
+      <c r="G143" s="5">
+        <v>15.84</v>
+      </c>
+      <c r="H143" s="6">
+        <v>24.01</v>
+      </c>
+      <c r="I143" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="J143" s="5">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L143" s="6">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="M143" s="5">
+        <v>85.11</v>
+      </c>
+      <c r="N143" s="5">
+        <v>9.66</v>
+      </c>
+      <c r="O143" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="P143" s="5">
+        <v>3.59</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>100</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T143" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="5">
+        <v>3.38</v>
+      </c>
+      <c r="F144" s="5">
+        <v>10.78</v>
+      </c>
+      <c r="G144" s="5">
+        <v>15.27</v>
+      </c>
+      <c r="H144" s="6">
+        <v>30.39</v>
+      </c>
+      <c r="I144" s="5">
+        <v>29.44</v>
+      </c>
+      <c r="J144" s="5">
+        <v>69.61</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L144" s="6">
+        <v>69.61</v>
+      </c>
+      <c r="M144" s="5">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="N144" s="5">
+        <v>15.14</v>
+      </c>
+      <c r="O144" s="5">
+        <v>5.83</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>100</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T144" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="5">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F145" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G145" s="5">
+        <v>36.83</v>
+      </c>
+      <c r="H145" s="6">
+        <v>44.15</v>
+      </c>
+      <c r="I145" s="5">
+        <v>43.39</v>
+      </c>
+      <c r="J145" s="5">
+        <v>55.85</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L145" s="6">
+        <v>55.85</v>
+      </c>
+      <c r="M145" s="5">
+        <v>76.91</v>
+      </c>
+      <c r="N145" s="5">
+        <v>15.54</v>
+      </c>
+      <c r="O145" s="5">
+        <v>6.81</v>
+      </c>
+      <c r="P145" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>100</v>
+      </c>
+      <c r="R145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T145" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="F146" s="5">
+        <v>15.59</v>
+      </c>
+      <c r="G146" s="5">
+        <v>30.29</v>
+      </c>
+      <c r="H146" s="6">
+        <v>57.99</v>
+      </c>
+      <c r="I146" s="5">
+        <v>57.27</v>
+      </c>
+      <c r="J146" s="5">
+        <v>42.01</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L146" s="6">
+        <v>42.01</v>
+      </c>
+      <c r="M146" s="5">
+        <v>75.95</v>
+      </c>
+      <c r="N146" s="5">
+        <v>15.45</v>
+      </c>
+      <c r="O146" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="P146" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>100</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="5">
+        <v>6.64</v>
+      </c>
+      <c r="F147" s="5">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G147" s="5">
+        <v>43.79</v>
+      </c>
+      <c r="H147" s="6">
+        <v>59.3</v>
+      </c>
+      <c r="I147" s="5">
+        <v>58.71</v>
+      </c>
+      <c r="J147" s="5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L147" s="6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M147" s="5">
+        <v>83.49</v>
+      </c>
+      <c r="N147" s="5">
+        <v>13.44</v>
+      </c>
+      <c r="O147" s="5">
+        <v>3.07</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>100</v>
+      </c>
+      <c r="R147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="9" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="1:20" s="1" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A142:U142"/>
+    <mergeCell ref="A149:T149"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:A5"/>
@@ -44263,13 +46258,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142:U142"/>
+      <selection pane="bottomRight" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44287,111 +46282,108 @@
     <col min="20" max="20" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="83.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -44448,7 +46440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -44510,7 +46502,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -44572,7 +46564,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -44634,7 +46626,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -44696,7 +46688,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -44758,7 +46750,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -44820,7 +46812,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -44882,7 +46874,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -44944,7 +46936,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -45006,7 +46998,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -45068,7 +47060,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -52074,7 +54066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>140</v>
       </c>
@@ -52136,7 +54128,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>141</v>
       </c>
@@ -52198,7 +54190,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>142</v>
       </c>
@@ -52260,7 +54252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>143</v>
       </c>
@@ -52322,7 +54314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>144</v>
       </c>
@@ -52384,7 +54376,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>145</v>
       </c>
@@ -52446,7 +54438,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>146</v>
       </c>
@@ -52508,7 +54500,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>147</v>
       </c>
@@ -52570,7 +54562,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>148</v>
       </c>
@@ -52632,7 +54624,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>149</v>
       </c>
@@ -52694,7 +54686,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>150</v>
       </c>
@@ -52756,7 +54748,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>151</v>
       </c>
@@ -52818,7 +54810,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>152</v>
       </c>
@@ -52880,40 +54872,433 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="1" customFormat="1" ht="63.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-      <c r="U142" s="8"/>
+    <row r="142" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F142" s="5">
+        <v>7.35</v>
+      </c>
+      <c r="G142" s="5">
+        <v>32.94</v>
+      </c>
+      <c r="H142" s="6">
+        <v>41.64</v>
+      </c>
+      <c r="I142" s="5">
+        <v>40.29</v>
+      </c>
+      <c r="J142" s="5">
+        <v>58.36</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L142" s="6">
+        <v>58.36</v>
+      </c>
+      <c r="M142" s="5">
+        <v>42.47</v>
+      </c>
+      <c r="N142" s="5">
+        <v>57.53</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>100</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T142" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C143" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="G143" s="5">
+        <v>27.45</v>
+      </c>
+      <c r="H143" s="6">
+        <v>28.52</v>
+      </c>
+      <c r="I143" s="5">
+        <v>28.46</v>
+      </c>
+      <c r="J143" s="5">
+        <v>71.48</v>
+      </c>
+      <c r="K143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L143" s="6">
+        <v>71.48</v>
+      </c>
+      <c r="M143" s="5">
+        <v>47.34</v>
+      </c>
+      <c r="N143" s="5">
+        <v>52.66</v>
+      </c>
+      <c r="O143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>100</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T143" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" s="5">
+        <v>4.24</v>
+      </c>
+      <c r="G144" s="5">
+        <v>31.08</v>
+      </c>
+      <c r="H144" s="6">
+        <v>36.11</v>
+      </c>
+      <c r="I144" s="5">
+        <v>35.32</v>
+      </c>
+      <c r="J144" s="5">
+        <v>63.89</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L144" s="6">
+        <v>63.89</v>
+      </c>
+      <c r="M144" s="5">
+        <v>47.3</v>
+      </c>
+      <c r="N144" s="5">
+        <v>29.55</v>
+      </c>
+      <c r="O144" s="5">
+        <v>23.15</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>100</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S144" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T144" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F145" s="5">
+        <v>7.54</v>
+      </c>
+      <c r="G145" s="5">
+        <v>12.79</v>
+      </c>
+      <c r="H145" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="I145" s="5">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="J145" s="5">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="K145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L145" s="6">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N145" s="5">
+        <v>100</v>
+      </c>
+      <c r="O145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>100</v>
+      </c>
+      <c r="R145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S145" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T145" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="C146" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F146" s="5">
+        <v>16.45</v>
+      </c>
+      <c r="G146" s="5">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H146" s="6">
+        <v>21.25</v>
+      </c>
+      <c r="I146" s="5">
+        <v>20.83</v>
+      </c>
+      <c r="J146" s="5">
+        <v>78.75</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L146" s="6">
+        <v>78.75</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N146" s="5">
+        <v>84.09</v>
+      </c>
+      <c r="O146" s="5">
+        <v>15.91</v>
+      </c>
+      <c r="P146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>100</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T146" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" s="1" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="C147" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1.84</v>
+      </c>
+      <c r="G147" s="5">
+        <v>21.56</v>
+      </c>
+      <c r="H147" s="6">
+        <v>23.47</v>
+      </c>
+      <c r="I147" s="5">
+        <v>23.41</v>
+      </c>
+      <c r="J147" s="5">
+        <v>76.53</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L147" s="6">
+        <v>76.53</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N147" s="5">
+        <v>49.12</v>
+      </c>
+      <c r="O147" s="5">
+        <v>50.88</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>100</v>
+      </c>
+      <c r="R147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="S147" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T147" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="9" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="1:20" s="1" customFormat="1" ht="63.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="11"/>
+      <c r="Q149" s="11"/>
+      <c r="R149" s="11"/>
+      <c r="S149" s="11"/>
+      <c r="T149" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A142:U142"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A149:T149"/>
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="M4:T4"/>
+    <mergeCell ref="A3:T3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
